--- a/storage/file/Revisi.xlsx
+++ b/storage/file/Revisi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Lumen\storage\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BBCCAF-97F4-4AC4-B93A-70D4FC877BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F4D47E-DF0B-4E4C-997A-055A27C54219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1965" windowWidth="15375" windowHeight="7875" xr2:uid="{C2FA5DCA-E48F-49FD-B83B-C3BFEE4C087E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C2FA5DCA-E48F-49FD-B83B-C3BFEE4C087E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,9 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,11 +606,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -635,37 +637,37 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="15">
         <v>15000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="15">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="15">
         <v>5000</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="15">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -678,9 +680,6 @@
       <c r="F4" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:F4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
